--- a/resources/experiment 1/metrics/MAPE/incidence/Angina (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Angina (INC).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46640842766139.21</v>
+        <v>46640842766139.2</v>
       </c>
       <c r="C2" t="n">
         <v>46640842766139.21</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35164211253040.34</v>
+        <v>33266025416571.03</v>
       </c>
       <c r="C3" t="n">
-        <v>37365151833932.09</v>
+        <v>38143163041203.87</v>
       </c>
       <c r="D3" t="n">
-        <v>37365151833932.09</v>
+        <v>36451670223412.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15498875370587.2</v>
+        <v>34344119739998.72</v>
       </c>
       <c r="C4" t="n">
-        <v>15498875370587.19</v>
+        <v>33242532460768.36</v>
       </c>
       <c r="D4" t="n">
-        <v>15498875370587.19</v>
+        <v>34344119739998.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37156047377839.57</v>
+        <v>50668038803691.88</v>
       </c>
       <c r="C5" t="n">
-        <v>37156047377839.57</v>
+        <v>39780181238528.34</v>
       </c>
       <c r="D5" t="n">
-        <v>37156047377839.57</v>
+        <v>33511962025915.6</v>
       </c>
     </row>
   </sheetData>
